--- a/data/talents.xlsx
+++ b/data/talents.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" mc:Ignorable="x15 xr xr6 xr10 xr2">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24326"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -10,7 +10,7 @@
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CC5D45B-00AC-4951-8246-510F02069F92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView activeTab="0" windowHeight="12576" windowWidth="23256" xWindow="-108" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}" yWindow="-108"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="talents" sheetId="1" r:id="rId1"/>
@@ -92,108 +92,74 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="515" uniqueCount="473">
   <si>
-    <r>
-      <t>序号</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>天赋名</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>括号中的内容</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>1001</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>1002</t>
-    </r>
+    <t>序号</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>天赋名</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>括号中的内容</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1001</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1002</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>1003</t>
   </si>
   <si>
-    <r>
-      <t>稀有度</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>初始可用属性点</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>status</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>随身玉佩</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>红肚兜</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>1004</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>生而为男</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>生而为女</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>性别一定为男</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>性别一定为女</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>1005</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>动漫高手</t>
-    </r>
+    <t>稀有度</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>初始可用属性点</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>status</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>随身玉佩</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>红肚兜</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1004</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>生而为男</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>生而为女</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>性别一定为男</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>性别一定为女</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1005</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>动漫高手</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -536,855 +502,571 @@
     <t>1118</t>
   </si>
   <si>
-    <r>
-      <t>网络巨魔</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>入宅的可能性翻6倍</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>天赋异禀</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>初始可用属性点+2</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>天生抑郁</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>天龙人</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>你拥有北京户口</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>独生子女</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>你没有兄弟姐妹</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>乡间微风</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>你出生在农村</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>你出生在城市</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>城中高楼</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>你有美国国籍</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>美籍华人</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>家中老大</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>你最受父母宠爱</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>水性良好</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>不会被淹死</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>先天免疫</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>你不会得艾滋病</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>所有属性+1</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>额外家境</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>额外颜值</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>额外体质</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>额外智力</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>额外快乐</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>快乐+1</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>快乐-3</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>快乐+2</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>超凡</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>父母美貌</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>颜值+2</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>红颜薄命</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>颜值+2，体质-2</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>属蛇</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>不会被蛇咬死</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>所有属性+2</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>半神</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>人中龙凤</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>天生双重性别</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>阴阳之外</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>天生无性别</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>斩情证道</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>终生不恋爱结婚</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>桃花连连</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>12岁前父母都健在</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>平安童年</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>宠物大师</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>宠物不会意外死亡</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>天生残疾</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>体质-2</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>早产儿</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>所有属性-1</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>体质-10</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>十死无生</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>家运不顺</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>家境-2</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>头着地</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>智力-2</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>胎教</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>智力+1</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>班中红人</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>和同学容易处好关系</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>骑士</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>能轻松学会骑车</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>永远的神</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>电竞天才</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>可能和同性交往</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>彩虹之下</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>丁克</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>赌毒不沾</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>不生孩子</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>少数民族</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>高考+5分</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>恋爱机会提升</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>老司机</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>你的家人不会心脏病</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>低压</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>战功</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>你退伍后会当官</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>不孕不育</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>你生不出孩子</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>白头偕老</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>爱人至少能活到70岁</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>100岁时才能开启</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>description</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>name</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>$id</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>effect:SPR</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>effect:MNY</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>effect:CHR</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>effect:STR</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>effect:INT</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>三十而立</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>四十不惑</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>30岁时家境+2</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>40岁时智力+2</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>知天命</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>50岁时智力、快乐+1</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>耳顺</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>60岁时快乐+2</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>从心所欲</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>70岁时快乐+3</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>老当益壮</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>60岁时体质+2</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>鹤发童颜</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>70岁时颜值+3</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>学前启蒙</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>5岁时智力+2</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>十八变</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>18岁时颜值+2</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>迟来之财</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>90岁时家境+4</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>condition</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>触发条件</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>理财达人</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>成熟</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>形象管理</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>成年礼</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>18岁时快乐+1</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>初始可用属性点+1</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>初始可用属性点+8</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>初始可用属性点+4</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>天命</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>人类进化</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>开光之胎</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>祖传药丸</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>神秘的小盒子</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>功能不明</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>家境为0时家境+1</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>乐天派</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>快乐为0时快乐+1</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>体质为0时体质+1</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>命悬一线</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>智可生财</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>若20岁时智力&gt;8，家境+2</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>舔狗甚多</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>若20岁时颜值&gt;8，快乐+2</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>grade</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>保胎丸</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>你不会胎死腹中</t>
-    </r>
+    <t>网络巨魔</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>入宅的可能性翻6倍</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>天赋异禀</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>初始可用属性点+2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>天生抑郁</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>天龙人</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>你拥有北京户口</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>独生子女</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>你没有兄弟姐妹</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>乡间微风</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>你出生在农村</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>你出生在城市</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>城中高楼</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>你有美国国籍</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>美籍华人</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>家中老大</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>你最受父母宠爱</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>水性良好</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>不会被淹死</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>先天免疫</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>你不会得艾滋病</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>所有属性+1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>额外家境</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>额外颜值</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>额外体质</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>额外智力</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>额外快乐</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>快乐+1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>快乐-3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>快乐+2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>超凡</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>父母美貌</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>颜值+2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>红颜薄命</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>颜值+2，体质-2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>属蛇</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>不会被蛇咬死</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>所有属性+2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>半神</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>人中龙凤</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>天生双重性别</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>阴阳之外</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>天生无性别</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>斩情证道</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>终生不恋爱结婚</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>桃花连连</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>12岁前父母都健在</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>平安童年</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>宠物大师</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>宠物不会意外死亡</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>天生残疾</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>体质-2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>早产儿</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>所有属性-1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>体质-10</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>十死无生</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>家运不顺</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>家境-2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>头着地</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>智力-2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>胎教</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>智力+1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>班中红人</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>和同学容易处好关系</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>骑士</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>能轻松学会骑车</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>永远的神</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>电竞天才</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>可能和同性交往</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>彩虹之下</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>丁克</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>赌毒不沾</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>不生孩子</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>少数民族</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>高考+5分</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>恋爱机会提升</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>老司机</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>你的家人不会心脏病</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>低压</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>战功</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>你退伍后会当官</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>不孕不育</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>你生不出孩子</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>白头偕老</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>爱人至少能活到70岁</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>100岁时才能开启</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>description</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>name</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>$id</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>effect:SPR</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>effect:MNY</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>effect:CHR</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>effect:STR</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>effect:INT</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>三十而立</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>四十不惑</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>30岁时家境+2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>40岁时智力+2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>知天命</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>50岁时智力、快乐+1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>耳顺</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>60岁时快乐+2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>从心所欲</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>70岁时快乐+3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>老当益壮</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>60岁时体质+2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>鹤发童颜</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>70岁时颜值+3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>学前启蒙</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>5岁时智力+2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>十八变</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>18岁时颜值+2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>迟来之财</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>90岁时家境+4</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>condition</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>触发条件</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>理财达人</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>成熟</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>形象管理</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>成年礼</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>18岁时快乐+1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>初始可用属性点+1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>初始可用属性点+8</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>初始可用属性点+4</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>天命</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>人类进化</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>开光之胎</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>祖传药丸</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>神秘的小盒子</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>功能不明</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>家境为0时家境+1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>乐天派</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>快乐为0时快乐+1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>体质为0时体质+1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>命悬一线</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>智可生财</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>若20岁时智力&gt;8，家境+2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>舔狗甚多</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>若20岁时颜值&gt;8，快乐+2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>grade</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>保胎丸</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>你不会胎死腹中</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -1418,747 +1100,501 @@
     <t>(AGE?[20])&amp;(CHR&gt;8)</t>
   </si>
   <si>
-    <r>
-      <t>你不会遭遇枪击</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>白化病</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>佛宗</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>考上哈佛大学的几率提高</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>悟道</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>智力&gt;10时快乐+3</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>INT&gt;10</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>体质&gt;10时颜值+3</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>驻颜</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>STR&gt;10</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>体质&gt;10时快乐+3</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>界限突破</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>颜值&gt;10时快乐+3</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>CHR&gt;10</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>倾城</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>智力&gt;10时体质+3</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>训练有方</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>相由心生</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>智力&gt;10时颜值+3</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>智力&gt;10时家境+3</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>智多鑫</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>快乐&gt;10时其他属性+1</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>天启</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>SPR&gt;10</t>
-    </r>
+    <t>你不会遭遇枪击</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>白化病</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>佛宗</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>考上哈佛大学的几率提高</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>悟道</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>智力&gt;10时快乐+3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>INT&gt;10</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>体质&gt;10时颜值+3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>驻颜</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>STR&gt;10</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>体质&gt;10时快乐+3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>界限突破</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>颜值&gt;10时快乐+3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CHR&gt;10</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>倾城</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>智力&gt;10时体质+3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>训练有方</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>相由心生</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>智力&gt;10时颜值+3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>智力&gt;10时家境+3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>智多鑫</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>快乐&gt;10时其他属性+1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>天启</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>SPR&gt;10</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>快乐&gt;10时其他属性+2</t>
   </si>
   <si>
-    <r>
-      <t>灵光</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>快乐&gt;10时其他属性+3</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>神谕</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>献祭</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>初始可用点-10</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>挑战者</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>初始可用属性点-2，快乐+2</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>初始可用属性点-3，快乐+5</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>幸运儿</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>家境&gt;10时快乐+3</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>MNY&gt;10</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>(MNY&lt;1)&amp;(MNY&gt;-1)</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>(SPR&lt;1)&amp;(SPR&gt;-1)</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>(STR&lt;1)&amp;(STR&gt;-1)</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>你不懂</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>整容</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>家境&gt;10时颜值+3</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>钻石健身卡</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>家境&gt;10时体质+3</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>体质&lt;0时其他属性+1</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>STR&lt;0</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>身残志坚</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>活死人</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>开一扇窗</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>颜值&lt;0时其他属性+1</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>CHR&lt;0</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>颜值-2，智力+2</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>颜值-1</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>痘痘脸</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>大额头</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>家境&lt;0时其他属性+1</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>快乐&lt;0时其他属性+1</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>潜能</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>MNY&lt;0</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>SPR&lt;0</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>哀兵</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>快乐&lt;-1时其他属性+2</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>SPR&lt;-1</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>家境&lt;-1时其他属性+2</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>MNY&lt;-1</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>觉醒</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>抖M</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>家境-2，快乐+2</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>苦痛侍僧</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>海的女儿</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>颜值-2，初始可用属性点+1</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>所有属性&gt;5时，所有属性+1</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>(SPR&gt;5)&amp;(MNY&gt;5)&amp;(CHR&gt;5)&amp;(STR&gt;5)&amp;(INT&gt;5)</t>
-    </r>
+    <t>灵光</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>快乐&gt;10时其他属性+3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>神谕</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>献祭</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>初始可用点-10</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>挑战者</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>初始可用属性点-2，快乐+2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>初始可用属性点-3，快乐+5</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>幸运儿</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>家境&gt;10时快乐+3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>MNY&gt;10</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>(MNY&lt;1)&amp;(MNY&gt;-1)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>(SPR&lt;1)&amp;(SPR&gt;-1)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>(STR&lt;1)&amp;(STR&gt;-1)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>你不懂</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>整容</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>家境&gt;10时颜值+3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>钻石健身卡</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>家境&gt;10时体质+3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>体质&lt;0时其他属性+1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>STR&lt;0</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>身残志坚</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>活死人</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>开一扇窗</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>颜值&lt;0时其他属性+1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CHR&lt;0</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>颜值-2，智力+2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>颜值-1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>痘痘脸</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>大额头</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>家境&lt;0时其他属性+1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>快乐&lt;0时其他属性+1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>潜能</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>MNY&lt;0</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>SPR&lt;0</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>哀兵</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>快乐&lt;-1时其他属性+2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>SPR&lt;-1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>家境&lt;-1时其他属性+2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>MNY&lt;-1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>觉醒</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>抖M</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>家境-2，快乐+2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>苦痛侍僧</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>海的女儿</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>颜值-2，初始可用属性点+1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>所有属性&gt;5时，所有属性+1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>(SPR&gt;5)&amp;(MNY&gt;5)&amp;(CHR&gt;5)&amp;(STR&gt;5)&amp;(INT&gt;5)</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>所有属性&gt;5时，所有属性+2</t>
   </si>
   <si>
-    <r>
-      <t>进阶</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>超进化</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>精准扶贫</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>你20、30岁时无事发生</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>蓝色胶囊</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>白色胶囊</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>紫色胶囊</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>你10岁时无事发生</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>AGE?[10]</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>AGE?[20,30]</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>跳过你的40~50岁</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>AGE?[40,41,42,43,44,45,46,47,48,49,50]</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>健康饮食</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>你不吃洋快餐</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>互斥天赋</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>exclusive[]</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>不想罢了</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>你不会上清华大学</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>挑衅</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>你喜欢没事找事</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>你和家人不会发生车祸</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>你喜欢旅游</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>你比较自恋</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>旅行者</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>水仙</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>缺一门</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>无效果</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>你可能听到一些绝密消息</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>异界来客</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>1025</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>1024</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>1003</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>1010</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>1013</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>1014</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>1012</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>1012</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>1013</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>1014</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>三胎人生</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>1113</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>1003</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>1025</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>1026</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>你尽可能生三胎</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>跳过你的60~90岁</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>橙色胶囊</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>AGE?[60,61,62,63,64,65,66,67,68,69,70,71,72,73,74,75,76,77,78,79,80,81,82,83,84,85,86,87,88,89,90]</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>参加奥赛的几率提高</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>宙斯</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>考公务员时一定能考上</t>
-    </r>
+    <t>进阶</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>超进化</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>精准扶贫</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>你20、30岁时无事发生</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>蓝色胶囊</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>白色胶囊</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>紫色胶囊</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>你10岁时无事发生</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>AGE?[10]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>AGE?[20,30]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>跳过你的40~50岁</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>AGE?[40,41,42,43,44,45,46,47,48,49,50]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>健康饮食</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>你不吃洋快餐</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>互斥天赋</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>exclusive[]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>不想罢了</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>你不会上清华大学</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>挑衅</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>你喜欢没事找事</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>你和家人不会发生车祸</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>你喜欢旅游</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>你比较自恋</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>旅行者</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>水仙</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>缺一门</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>无效果</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>你可能听到一些绝密消息</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>异界来客</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1025</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1024</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1003</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1010</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1013</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1014</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1012</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1012</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1013</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1014</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>三胎人生</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1113</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1003</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1025</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1026</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>你尽可能生三胎</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>跳过你的60~90岁</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>橙色胶囊</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>AGE?[60,61,62,63,64,65,66,67,68,69,70,71,72,73,74,75,76,77,78,79,80,81,82,83,84,85,86,87,88,89,90]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>参加奥赛的几率提高</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>宙斯</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>考公务员时一定能考上</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -2192,117 +1628,79 @@
     <t>1128</t>
   </si>
   <si>
-    <r>
-      <t>为人民服务</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>入狱会减刑</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>表现良好</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>运气稍微提升</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>小吉</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>天秤座</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>据说做事很公平</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>万里挑一</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>你很攻</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>你有强迫症</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>把握不住</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>赶着投胎，不要初始属性了</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>1084</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>1085</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>1086</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>1122</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>急了急了</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>不离不弃</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>你不会离婚</t>
-    </r>
+    <t>为人民服务</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>入狱会减刑</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>表现良好</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>运气稍微提升</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>小吉</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>天秤座</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>据说做事很公平</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>万里挑一</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>你很攻</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>你有强迫症</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>把握不住</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>赶着投胎，不要初始属性了</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1084</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1085</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1086</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1122</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>急了急了</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>不离不弃</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>你不会离婚</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -2312,291 +1710,202 @@
     <t>1130</t>
   </si>
   <si>
-    <r>
-      <t>身高不矮</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>足量</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>易胖体质</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>颜值更容易降低</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>种族主义者</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>黄帝</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>戒律</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>左撇子</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>习惯使用左手</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>克苏鲁</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>&amp;▓▓▓◆▓▓▓￥#▓@■.◆</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>你还拥有其他人格</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>不连续存在</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>占位符</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>少一个可选天赋</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>小时候死亡率降低</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>或许有护佑作用</t>
-    </r>
+    <t>身高不矮</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>足量</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>易胖体质</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>颜值更容易降低</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>种族主义者</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>黄帝</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>戒律</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>左撇子</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>习惯使用左手</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>克苏鲁</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>&amp;▓▓▓◆▓▓▓￥#▓@■.◆</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>你还拥有其他人格</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>不连续存在</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>占位符</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>少一个可选天赋</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>小时候死亡率降低</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>或许有护佑作用</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>1131</t>
   </si>
   <si>
-    <r>
-      <t>魔法棒</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>不知道有什么用……</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>返老还童</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>可能会回到年轻的时候</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>时光倒流</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>或许时间会倒流</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>转世重修</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>渡劫失败重生</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>AGE?[40]</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>40岁时家境+3</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>18岁时智力+2</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>AGE?[18]</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>24岁时颜值+2</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>AGE?[24]</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>体质&lt;0时其他属性+2</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>乐观</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>初始可用属性点+20</t>
-  </si>
-  <si>
-    <t>大帝之姿</t>
-  </si>
-  <si>
-    <t>此子定有大帝之姿</t>
-  </si>
-  <si>
-    <t>此子有大帝之姿</t>
+    <t>魔法棒</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>不知道有什么用……</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>返老还童</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>可能会回到年轻的时候</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>时光倒流</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>或许时间会倒流</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>转世重修</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>渡劫失败重生</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>AGE?[40]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>40岁时家境+3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>18岁时智力+2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>AGE?[18]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>24岁时颜值+2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>AGE?[24]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>体质&lt;0时其他属性+2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>乐观</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" count="8" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="8">
-    <numFmt numFmtId="5" formatCode="&quot;$&quot;#,##0_);(&quot;$&quot;#,##0)"/>
-    <numFmt numFmtId="6" formatCode="&quot;$&quot;#,##0_);[Red](&quot;$&quot;#,##0)"/>
-    <numFmt numFmtId="7" formatCode="&quot;$&quot;#,##0.00_);(&quot;$&quot;#,##0.00)"/>
-    <numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00_);[Red](&quot;$&quot;#,##0.00)"/>
-    <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* (#,##0);_(* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* (#,##0);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* (#,##0.00);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* (#,##0.00);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-  </numFmts>
-  <fonts count="8">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="等线"/>
       <family val="2"/>
-      <color rgb="FF000000"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="14"/>
+      <color theme="0"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
-      <family val="2"/>
-      <color rgb="FFFFFFFF"/>
-      <sz val="14"/>
     </font>
     <font>
+      <sz val="9"/>
       <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
-      <family val="3"/>
-      <color rgb="FF000000"/>
-      <sz val="9"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="14"/>
+      <color theme="1"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
-      <family val="2"/>
-      <color rgb="FF000000"/>
-      <sz val="14"/>
     </font>
     <font>
+      <sz val="9"/>
+      <color indexed="81"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
-      <family val="3"/>
-      <color rgb="FFauto"/>
-      <sz val="9"/>
     </font>
     <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
-      <family val="3"/>
-      <b/>
-      <color rgb="FFauto"/>
-      <sz val="9"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
-      <family val="2"/>
-      <color rgb="FF000000"/>
-      <sz val="11"/>
     </font>
     <font>
+      <sz val="10"/>
+      <color theme="1"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
-      <family val="2"/>
-      <color rgb="FF000000"/>
-      <sz val="10"/>
     </font>
   </fonts>
   <fills count="4">
@@ -2608,54 +1917,44 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF3A3838"/>
+        <fgColor theme="2" tint="-0.749992370372631"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFAEABAB"/>
+        <fgColor theme="2" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
   <borders count="1">
     <border>
-      <left style="none">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="none">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="none">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="none">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -2946,20 +2245,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:Q136"/>
   <sheetViews>
-    <sheetView workbookViewId="0" tabSelected="1">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="3" ySplit="2" topLeftCell="D129" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="D4" sqref="D4"/>
+      <selection pane="bottomRight" activeCell="F131" sqref="F131"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="25.44140625" defaultRowHeight="39"/>
+  <sheetFormatPr defaultColWidth="25.44140625" defaultRowHeight="39.6" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="25.44140625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="25.44140625" style="1"/>
     <col min="2" max="2" width="27.44140625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="45.92" style="1" customWidth="1"/>
+    <col min="3" max="3" width="33" style="1" customWidth="1"/>
     <col min="4" max="4" width="20.88671875" style="1" customWidth="1"/>
     <col min="5" max="5" width="11.109375" style="1" customWidth="1"/>
     <col min="6" max="6" width="19.33203125" style="1" customWidth="1"/>
@@ -2968,10 +2268,10 @@
     <col min="15" max="15" width="19.33203125" style="1" customWidth="1"/>
     <col min="16" max="16" width="21.88671875" style="1" customWidth="1"/>
     <col min="17" max="17" width="19.109375" style="1" customWidth="1"/>
-    <col min="18" max="16384" width="25.44140625" style="1" customWidth="1"/>
+    <col min="18" max="16384" width="25.44140625" style="1"/>
   </cols>
   <sheetData>
-    <row ht="39.6" customHeight="1" r="1" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" s="2" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>219</v>
       </c>
@@ -3024,7 +2324,7 @@
         <v>372</v>
       </c>
     </row>
-    <row ht="39.6" customHeight="1" r="2" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" s="3" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
@@ -3077,7 +2377,7 @@
         <v>371</v>
       </c>
     </row>
-    <row ht="39.6" customHeight="1" r="3" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:17" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
@@ -3091,7 +2391,7 @@
         <v>0</v>
       </c>
     </row>
-    <row ht="39.6" customHeight="1" r="4" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:17" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
@@ -3105,7 +2405,7 @@
         <v>0</v>
       </c>
     </row>
-    <row ht="39.6" customHeight="1" r="5" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:17" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>5</v>
       </c>
@@ -3131,7 +2431,7 @@
         <v>1113</v>
       </c>
     </row>
-    <row ht="39.6" customHeight="1" r="6" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:17" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>11</v>
       </c>
@@ -3154,7 +2454,7 @@
         <v>386</v>
       </c>
     </row>
-    <row ht="39.6" customHeight="1" r="7" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:17" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>16</v>
       </c>
@@ -3168,7 +2468,7 @@
         <v>2</v>
       </c>
     </row>
-    <row ht="39.6" customHeight="1" r="8" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:17" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>18</v>
       </c>
@@ -3185,7 +2485,7 @@
         <v>1</v>
       </c>
     </row>
-    <row ht="39.6" customHeight="1" r="9" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:17" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>19</v>
       </c>
@@ -3202,7 +2502,7 @@
         <v>2</v>
       </c>
     </row>
-    <row ht="39.6" customHeight="1" r="10" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:17" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>20</v>
       </c>
@@ -3219,7 +2519,7 @@
         <v>-3</v>
       </c>
     </row>
-    <row ht="39.6" customHeight="1" r="11" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:17" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>21</v>
       </c>
@@ -3236,7 +2536,7 @@
         <v>2</v>
       </c>
     </row>
-    <row ht="39.6" customHeight="1" r="12" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:17" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>22</v>
       </c>
@@ -3259,7 +2559,7 @@
         <v>395</v>
       </c>
     </row>
-    <row ht="39.6" customHeight="1" r="13" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:17" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>23</v>
       </c>
@@ -3273,7 +2573,7 @@
         <v>0</v>
       </c>
     </row>
-    <row ht="39.6" customHeight="1" r="14" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:17" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>24</v>
       </c>
@@ -3296,7 +2596,7 @@
         <v>391</v>
       </c>
     </row>
-    <row ht="39.6" customHeight="1" r="15" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:17" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>25</v>
       </c>
@@ -3319,7 +2619,7 @@
         <v>391</v>
       </c>
     </row>
-    <row ht="39.6" customHeight="1" r="16" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:17" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>26</v>
       </c>
@@ -3345,7 +2645,7 @@
         <v>390</v>
       </c>
     </row>
-    <row ht="39.6" customHeight="1" r="17" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:15" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>27</v>
       </c>
@@ -3359,7 +2659,7 @@
         <v>1</v>
       </c>
     </row>
-    <row ht="39.6" customHeight="1" r="18" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:15" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>28</v>
       </c>
@@ -3373,7 +2673,7 @@
         <v>0</v>
       </c>
     </row>
-    <row ht="39.6" customHeight="1" r="19" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:15" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>29</v>
       </c>
@@ -3387,7 +2687,7 @@
         <v>0</v>
       </c>
     </row>
-    <row ht="39.6" customHeight="1" r="20" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:15" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>30</v>
       </c>
@@ -3416,7 +2716,7 @@
         <v>1</v>
       </c>
     </row>
-    <row ht="39.6" customHeight="1" r="21" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:15" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>31</v>
       </c>
@@ -3424,16 +2724,16 @@
         <v>161</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>473</v>
+        <v>254</v>
       </c>
       <c r="E21" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F21" s="1">
-        <v>20</v>
-      </c>
-    </row>
-    <row ht="39.6" customHeight="1" r="22" spans="1:15" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>32</v>
       </c>
@@ -3450,7 +2750,7 @@
         <v>2</v>
       </c>
     </row>
-    <row ht="39.6" customHeight="1" r="23" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:15" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>33</v>
       </c>
@@ -3470,7 +2770,7 @@
         <v>-2</v>
       </c>
     </row>
-    <row ht="39.6" customHeight="1" r="24" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:15" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>34</v>
       </c>
@@ -3484,7 +2784,7 @@
         <v>0</v>
       </c>
     </row>
-    <row ht="39.6" customHeight="1" r="25" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:15" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>35</v>
       </c>
@@ -3513,7 +2813,7 @@
         <v>2</v>
       </c>
     </row>
-    <row ht="39.6" customHeight="1" r="26" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:15" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>36</v>
       </c>
@@ -3536,7 +2836,7 @@
         <v>386</v>
       </c>
     </row>
-    <row ht="39.6" customHeight="1" r="27" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:15" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>37</v>
       </c>
@@ -3562,7 +2862,7 @@
         <v>1113</v>
       </c>
     </row>
-    <row ht="39.6" customHeight="1" r="28" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:15" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>38</v>
       </c>
@@ -3579,7 +2879,7 @@
         <v>397</v>
       </c>
     </row>
-    <row ht="39.6" customHeight="1" r="29" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:15" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>39</v>
       </c>
@@ -3596,7 +2896,7 @@
         <v>397</v>
       </c>
     </row>
-    <row ht="39.6" customHeight="1" r="30" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:15" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>40</v>
       </c>
@@ -3610,7 +2910,7 @@
         <v>0</v>
       </c>
     </row>
-    <row ht="39.6" customHeight="1" r="31" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:15" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>41</v>
       </c>
@@ -3624,7 +2924,7 @@
         <v>1</v>
       </c>
     </row>
-    <row ht="39.6" customHeight="1" r="32" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:15" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>42</v>
       </c>
@@ -3638,7 +2938,7 @@
         <v>0</v>
       </c>
     </row>
-    <row ht="39.6" customHeight="1" r="33" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:12" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>43</v>
       </c>
@@ -3655,7 +2955,7 @@
         <v>-2</v>
       </c>
     </row>
-    <row ht="39.6" customHeight="1" r="34" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:12" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>44</v>
       </c>
@@ -3684,7 +2984,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row ht="39.6" customHeight="1" r="35" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:12" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>45</v>
       </c>
@@ -3701,7 +3001,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row ht="39.6" customHeight="1" r="36" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:12" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>46</v>
       </c>
@@ -3718,7 +3018,7 @@
         <v>-2</v>
       </c>
     </row>
-    <row ht="39.6" customHeight="1" r="37" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:12" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>47</v>
       </c>
@@ -3735,7 +3035,7 @@
         <v>-2</v>
       </c>
     </row>
-    <row ht="39.6" customHeight="1" r="38" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:12" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>48</v>
       </c>
@@ -3752,7 +3052,7 @@
         <v>1</v>
       </c>
     </row>
-    <row ht="39.6" customHeight="1" r="39" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:12" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>49</v>
       </c>
@@ -3766,7 +3066,7 @@
         <v>0</v>
       </c>
     </row>
-    <row ht="39.6" customHeight="1" r="40" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:12" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>50</v>
       </c>
@@ -3780,7 +3080,7 @@
         <v>0</v>
       </c>
     </row>
-    <row ht="39.6" customHeight="1" r="41" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:12" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
         <v>51</v>
       </c>
@@ -3794,7 +3094,7 @@
         <v>1</v>
       </c>
     </row>
-    <row ht="39.6" customHeight="1" r="42" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:12" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
         <v>52</v>
       </c>
@@ -3808,7 +3108,7 @@
         <v>0</v>
       </c>
     </row>
-    <row ht="39.6" customHeight="1" r="43" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:12" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
         <v>53</v>
       </c>
@@ -3825,7 +3125,7 @@
         <v>397</v>
       </c>
     </row>
-    <row ht="39.6" customHeight="1" r="44" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:12" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
         <v>54</v>
       </c>
@@ -3839,7 +3139,7 @@
         <v>0</v>
       </c>
     </row>
-    <row ht="39.6" customHeight="1" r="45" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:12" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
         <v>55</v>
       </c>
@@ -3853,7 +3153,7 @@
         <v>0</v>
       </c>
     </row>
-    <row ht="39.6" customHeight="1" r="46" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:12" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
         <v>56</v>
       </c>
@@ -3867,7 +3167,7 @@
         <v>0</v>
       </c>
     </row>
-    <row ht="39.6" customHeight="1" r="47" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:12" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
         <v>57</v>
       </c>
@@ -3881,7 +3181,7 @@
         <v>0</v>
       </c>
     </row>
-    <row ht="39.6" customHeight="1" r="48" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:12" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
         <v>58</v>
       </c>
@@ -3898,7 +3198,7 @@
         <v>397</v>
       </c>
     </row>
-    <row ht="39.6" customHeight="1" r="49" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:11" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
         <v>59</v>
       </c>
@@ -3912,7 +3212,7 @@
         <v>1</v>
       </c>
     </row>
-    <row ht="39.6" customHeight="1" r="50" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:11" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
         <v>60</v>
       </c>
@@ -3926,7 +3226,7 @@
         <v>3</v>
       </c>
     </row>
-    <row ht="39.6" customHeight="1" r="51" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:11" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
         <v>61</v>
       </c>
@@ -3946,7 +3246,7 @@
         <v>2</v>
       </c>
     </row>
-    <row ht="39.6" customHeight="1" r="52" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:11" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
         <v>62</v>
       </c>
@@ -3966,7 +3266,7 @@
         <v>2</v>
       </c>
     </row>
-    <row ht="39.6" customHeight="1" r="53" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:11" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
         <v>63</v>
       </c>
@@ -3989,7 +3289,7 @@
         <v>1</v>
       </c>
     </row>
-    <row ht="39.6" customHeight="1" r="54" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:11" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
         <v>64</v>
       </c>
@@ -4009,7 +3309,7 @@
         <v>2</v>
       </c>
     </row>
-    <row ht="39.6" customHeight="1" r="55" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:11" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
         <v>65</v>
       </c>
@@ -4029,7 +3329,7 @@
         <v>3</v>
       </c>
     </row>
-    <row ht="39.6" customHeight="1" r="56" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:11" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
         <v>66</v>
       </c>
@@ -4049,7 +3349,7 @@
         <v>2</v>
       </c>
     </row>
-    <row ht="39.6" customHeight="1" r="57" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:11" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
         <v>67</v>
       </c>
@@ -4069,7 +3369,7 @@
         <v>3</v>
       </c>
     </row>
-    <row ht="39.6" customHeight="1" r="58" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:11" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
         <v>68</v>
       </c>
@@ -4089,7 +3389,7 @@
         <v>2</v>
       </c>
     </row>
-    <row ht="39.6" customHeight="1" r="59" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:11" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
         <v>69</v>
       </c>
@@ -4109,7 +3409,7 @@
         <v>2</v>
       </c>
     </row>
-    <row ht="39.6" customHeight="1" r="60" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:11" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
         <v>70</v>
       </c>
@@ -4129,7 +3429,7 @@
         <v>4</v>
       </c>
     </row>
-    <row ht="39.6" customHeight="1" r="61" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:11" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
         <v>71</v>
       </c>
@@ -4149,7 +3449,7 @@
         <v>3</v>
       </c>
     </row>
-    <row ht="39.6" customHeight="1" r="62" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:11" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
         <v>72</v>
       </c>
@@ -4169,7 +3469,7 @@
         <v>2</v>
       </c>
     </row>
-    <row ht="39.6" customHeight="1" r="63" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:11" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
         <v>73</v>
       </c>
@@ -4189,7 +3489,7 @@
         <v>2</v>
       </c>
     </row>
-    <row ht="39.6" customHeight="1" r="64" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:11" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
         <v>74</v>
       </c>
@@ -4209,7 +3509,7 @@
         <v>1</v>
       </c>
     </row>
-    <row ht="39.6" customHeight="1" r="65" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:10" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
         <v>75</v>
       </c>
@@ -4226,7 +3526,7 @@
         <v>1</v>
       </c>
     </row>
-    <row ht="39.6" customHeight="1" r="66" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:10" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
         <v>76</v>
       </c>
@@ -4243,7 +3543,7 @@
         <v>8</v>
       </c>
     </row>
-    <row ht="39.6" customHeight="1" r="67" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:10" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
         <v>77</v>
       </c>
@@ -4257,7 +3557,7 @@
         <v>1</v>
       </c>
     </row>
-    <row ht="39.6" customHeight="1" r="68" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:10" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
         <v>78</v>
       </c>
@@ -4277,7 +3577,7 @@
         <v>1</v>
       </c>
     </row>
-    <row ht="39.6" customHeight="1" r="69" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:10" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
         <v>79</v>
       </c>
@@ -4297,7 +3597,7 @@
         <v>1</v>
       </c>
     </row>
-    <row ht="39.6" customHeight="1" r="70" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:10" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
         <v>80</v>
       </c>
@@ -4317,7 +3617,7 @@
         <v>1</v>
       </c>
     </row>
-    <row ht="39.6" customHeight="1" r="71" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:10" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
         <v>81</v>
       </c>
@@ -4337,7 +3637,7 @@
         <v>2</v>
       </c>
     </row>
-    <row ht="39.6" customHeight="1" r="72" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:10" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
         <v>82</v>
       </c>
@@ -4357,7 +3657,7 @@
         <v>2</v>
       </c>
     </row>
-    <row ht="39.6" customHeight="1" r="73" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:10" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
         <v>83</v>
       </c>
@@ -4371,7 +3671,7 @@
         <v>0</v>
       </c>
     </row>
-    <row ht="39.6" customHeight="1" r="74" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:10" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
         <v>84</v>
       </c>
@@ -4385,7 +3685,7 @@
         <v>0</v>
       </c>
     </row>
-    <row ht="39.6" customHeight="1" r="75" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:10" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
         <v>85</v>
       </c>
@@ -4399,7 +3699,7 @@
         <v>0</v>
       </c>
     </row>
-    <row ht="39.6" customHeight="1" r="76" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:10" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
         <v>86</v>
       </c>
@@ -4419,7 +3719,7 @@
         <v>3</v>
       </c>
     </row>
-    <row ht="39.6" customHeight="1" r="77" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:10" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
         <v>87</v>
       </c>
@@ -4439,7 +3739,7 @@
         <v>3</v>
       </c>
     </row>
-    <row ht="39.6" customHeight="1" r="78" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:10" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
         <v>88</v>
       </c>
@@ -4459,7 +3759,7 @@
         <v>3</v>
       </c>
     </row>
-    <row ht="39.6" customHeight="1" r="79" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:10" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
         <v>89</v>
       </c>
@@ -4479,7 +3779,7 @@
         <v>3</v>
       </c>
     </row>
-    <row ht="39.6" customHeight="1" r="80" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:10" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
         <v>90</v>
       </c>
@@ -4499,7 +3799,7 @@
         <v>3</v>
       </c>
     </row>
-    <row ht="39.6" customHeight="1" r="81" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:12" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
         <v>91</v>
       </c>
@@ -4519,7 +3819,7 @@
         <v>3</v>
       </c>
     </row>
-    <row ht="39.6" customHeight="1" r="82" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:12" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
         <v>92</v>
       </c>
@@ -4539,7 +3839,7 @@
         <v>3</v>
       </c>
     </row>
-    <row ht="39.6" customHeight="1" r="83" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:12" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
         <v>93</v>
       </c>
@@ -4568,7 +3868,7 @@
         <v>1</v>
       </c>
     </row>
-    <row ht="39.6" customHeight="1" r="84" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:12" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="s">
         <v>94</v>
       </c>
@@ -4597,7 +3897,7 @@
         <v>2</v>
       </c>
     </row>
-    <row ht="39.6" customHeight="1" r="85" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:12" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="1" t="s">
         <v>95</v>
       </c>
@@ -4626,7 +3926,7 @@
         <v>3</v>
       </c>
     </row>
-    <row ht="39.6" customHeight="1" r="86" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:12" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="1" t="s">
         <v>96</v>
       </c>
@@ -4649,7 +3949,7 @@
         <v>433</v>
       </c>
     </row>
-    <row ht="39.6" customHeight="1" r="87" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:12" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="1" t="s">
         <v>97</v>
       </c>
@@ -4672,7 +3972,7 @@
         <v>433</v>
       </c>
     </row>
-    <row ht="39.6" customHeight="1" r="88" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:12" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="1" t="s">
         <v>98</v>
       </c>
@@ -4692,7 +3992,7 @@
         <v>433</v>
       </c>
     </row>
-    <row ht="39.6" customHeight="1" r="89" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:12" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="1" t="s">
         <v>99</v>
       </c>
@@ -4712,7 +4012,7 @@
         <v>3</v>
       </c>
     </row>
-    <row ht="39.6" customHeight="1" r="90" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:12" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="1" t="s">
         <v>100</v>
       </c>
@@ -4732,7 +4032,7 @@
         <v>3</v>
       </c>
     </row>
-    <row ht="39.6" customHeight="1" r="91" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:12" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="1" t="s">
         <v>101</v>
       </c>
@@ -4752,7 +4052,7 @@
         <v>3</v>
       </c>
     </row>
-    <row ht="39.6" customHeight="1" r="92" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:12" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="1" t="s">
         <v>102</v>
       </c>
@@ -4781,7 +4081,7 @@
         <v>1</v>
       </c>
     </row>
-    <row ht="39.6" customHeight="1" r="93" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:12" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="1" t="s">
         <v>103</v>
       </c>
@@ -4810,7 +4110,7 @@
         <v>2</v>
       </c>
     </row>
-    <row ht="39.6" customHeight="1" r="94" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:12" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="1" t="s">
         <v>104</v>
       </c>
@@ -4839,7 +4139,7 @@
         <v>1</v>
       </c>
     </row>
-    <row ht="39.6" customHeight="1" r="95" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:12" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" s="1" t="s">
         <v>105</v>
       </c>
@@ -4859,7 +4159,7 @@
         <v>2</v>
       </c>
     </row>
-    <row ht="39.6" customHeight="1" r="96" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:12" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="1" t="s">
         <v>106</v>
       </c>
@@ -4876,7 +4176,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row ht="39.6" customHeight="1" r="97" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:11" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" s="1" t="s">
         <v>107</v>
       </c>
@@ -4905,7 +4205,7 @@
         <v>1</v>
       </c>
     </row>
-    <row ht="39.6" customHeight="1" r="98" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:11" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="1" t="s">
         <v>108</v>
       </c>
@@ -4934,7 +4234,7 @@
         <v>1</v>
       </c>
     </row>
-    <row ht="39.6" customHeight="1" r="99" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:11" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" s="1" t="s">
         <v>109</v>
       </c>
@@ -4963,7 +4263,7 @@
         <v>2</v>
       </c>
     </row>
-    <row ht="39.6" customHeight="1" r="100" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:11" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" s="1" t="s">
         <v>110</v>
       </c>
@@ -4992,7 +4292,7 @@
         <v>2</v>
       </c>
     </row>
-    <row ht="39.6" customHeight="1" r="101" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:11" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A101" s="1" t="s">
         <v>111</v>
       </c>
@@ -5012,7 +4312,7 @@
         <v>-2</v>
       </c>
     </row>
-    <row ht="39.6" customHeight="1" r="102" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:11" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A102" s="1" t="s">
         <v>112</v>
       </c>
@@ -5032,7 +4332,7 @@
         <v>-2</v>
       </c>
     </row>
-    <row ht="39.6" customHeight="1" r="103" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:11" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A103" s="1" t="s">
         <v>113</v>
       </c>
@@ -5064,7 +4364,7 @@
         <v>1</v>
       </c>
     </row>
-    <row ht="39.6" customHeight="1" r="104" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:11" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A104" s="1" t="s">
         <v>114</v>
       </c>
@@ -5096,7 +4396,7 @@
         <v>2</v>
       </c>
     </row>
-    <row ht="39.6" customHeight="1" r="105" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:11" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A105" s="1" t="s">
         <v>115</v>
       </c>
@@ -5113,7 +4413,7 @@
         <v>0</v>
       </c>
     </row>
-    <row ht="39.6" customHeight="1" r="106" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:11" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A106" s="1" t="s">
         <v>116</v>
       </c>
@@ -5130,7 +4430,7 @@
         <v>2</v>
       </c>
     </row>
-    <row ht="39.6" customHeight="1" r="107" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:11" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A107" s="1" t="s">
         <v>117</v>
       </c>
@@ -5147,7 +4447,7 @@
         <v>1</v>
       </c>
     </row>
-    <row ht="39.6" customHeight="1" r="108" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:11" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A108" s="1" t="s">
         <v>118</v>
       </c>
@@ -5161,7 +4461,7 @@
         <v>0</v>
       </c>
     </row>
-    <row ht="39.6" customHeight="1" r="109" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:11" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A109" s="1" t="s">
         <v>119</v>
       </c>
@@ -5175,7 +4475,7 @@
         <v>0</v>
       </c>
     </row>
-    <row ht="39.6" customHeight="1" r="110" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:11" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A110" s="1" t="s">
         <v>120</v>
       </c>
@@ -5189,7 +4489,7 @@
         <v>0</v>
       </c>
     </row>
-    <row ht="39.6" customHeight="1" r="111" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:11" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A111" s="1" t="s">
         <v>121</v>
       </c>
@@ -5203,7 +4503,7 @@
         <v>0</v>
       </c>
     </row>
-    <row ht="39.6" customHeight="1" r="112" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:11" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A112" s="1" t="s">
         <v>122</v>
       </c>
@@ -5217,7 +4517,7 @@
         <v>0</v>
       </c>
     </row>
-    <row ht="39.6" customHeight="1" r="113" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:17" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A113" s="1" t="s">
         <v>123</v>
       </c>
@@ -5231,7 +4531,7 @@
         <v>0</v>
       </c>
     </row>
-    <row ht="39.6" customHeight="1" r="114" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:17" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A114" s="1" t="s">
         <v>124</v>
       </c>
@@ -5245,7 +4545,7 @@
         <v>2</v>
       </c>
     </row>
-    <row ht="39.6" customHeight="1" r="115" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:17" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A115" s="1" t="s">
         <v>125</v>
       </c>
@@ -5277,7 +4577,7 @@
         <v>1046</v>
       </c>
     </row>
-    <row ht="39.6" customHeight="1" r="116" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:17" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A116" s="1" t="s">
         <v>126</v>
       </c>
@@ -5294,7 +4594,7 @@
         <v>3</v>
       </c>
     </row>
-    <row ht="39.6" customHeight="1" r="117" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:17" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A117" s="1" t="s">
         <v>127</v>
       </c>
@@ -5308,7 +4608,7 @@
         <v>0</v>
       </c>
     </row>
-    <row ht="39.6" customHeight="1" r="118" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:17" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A118" s="1" t="s">
         <v>128</v>
       </c>
@@ -5322,7 +4622,7 @@
         <v>0</v>
       </c>
     </row>
-    <row ht="39.6" customHeight="1" r="119" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:17" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A119" s="1" t="s">
         <v>129</v>
       </c>
@@ -5336,7 +4636,7 @@
         <v>0</v>
       </c>
     </row>
-    <row ht="39.6" customHeight="1" r="120" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:17" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A120" s="1" t="s">
         <v>130</v>
       </c>
@@ -5350,7 +4650,7 @@
         <v>0</v>
       </c>
     </row>
-    <row ht="39.6" customHeight="1" r="121" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:17" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A121" s="1" t="s">
         <v>408</v>
       </c>
@@ -5364,7 +4664,7 @@
         <v>0</v>
       </c>
     </row>
-    <row ht="39.6" customHeight="1" r="122" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:17" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A122" s="1" t="s">
         <v>409</v>
       </c>
@@ -5378,7 +4678,7 @@
         <v>0</v>
       </c>
     </row>
-    <row ht="39.6" customHeight="1" r="123" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:17" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A123" s="1" t="s">
         <v>410</v>
       </c>
@@ -5392,7 +4692,7 @@
         <v>0</v>
       </c>
     </row>
-    <row ht="39.6" customHeight="1" r="124" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:17" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A124" s="1" t="s">
         <v>411</v>
       </c>
@@ -5418,7 +4718,7 @@
         <v>432</v>
       </c>
     </row>
-    <row ht="39.6" customHeight="1" r="125" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:17" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A125" s="1" t="s">
         <v>412</v>
       </c>
@@ -5432,7 +4732,7 @@
         <v>0</v>
       </c>
     </row>
-    <row ht="39.6" customHeight="1" r="126" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:17" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A126" s="1" t="s">
         <v>413</v>
       </c>
@@ -5446,7 +4746,7 @@
         <v>0</v>
       </c>
     </row>
-    <row ht="39.6" customHeight="1" r="127" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:17" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A127" s="1" t="s">
         <v>414</v>
       </c>
@@ -5460,7 +4760,7 @@
         <v>0</v>
       </c>
     </row>
-    <row ht="39.6" customHeight="1" r="128" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:17" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A128" s="1" t="s">
         <v>415</v>
       </c>
@@ -5474,7 +4774,7 @@
         <v>0</v>
       </c>
     </row>
-    <row ht="39.6" customHeight="1" r="129" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:5" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A129" s="1" t="s">
         <v>416</v>
       </c>
@@ -5488,7 +4788,7 @@
         <v>0</v>
       </c>
     </row>
-    <row ht="39.6" customHeight="1" r="130" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:5" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A130" s="1" t="s">
         <v>417</v>
       </c>
@@ -5502,7 +4802,7 @@
         <v>2</v>
       </c>
     </row>
-    <row ht="39.6" customHeight="1" r="131" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:5" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A131" s="1" t="s">
         <v>437</v>
       </c>
@@ -5516,7 +4816,7 @@
         <v>1</v>
       </c>
     </row>
-    <row ht="39.6" customHeight="1" r="132" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:5" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A132" s="1" t="s">
         <v>438</v>
       </c>
@@ -5530,7 +4830,7 @@
         <v>0</v>
       </c>
     </row>
-    <row ht="39.6" customHeight="1" r="133" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:5" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A133" s="1" t="s">
         <v>456</v>
       </c>
@@ -5544,7 +4844,7 @@
         <v>2</v>
       </c>
     </row>
-    <row ht="39.6" customHeight="1" r="134" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:5" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A134" s="1">
         <v>1132</v>
       </c>
@@ -5558,7 +4858,7 @@
         <v>1</v>
       </c>
     </row>
-    <row ht="39.6" customHeight="1" r="135" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:5" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A135" s="1">
         <v>1133</v>
       </c>
@@ -5572,7 +4872,7 @@
         <v>0</v>
       </c>
     </row>
-    <row ht="39.6" customHeight="1" r="136" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:5" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A136" s="1">
         <v>1134</v>
       </c>
@@ -5584,32 +4884,6 @@
       </c>
       <c r="E136" s="1">
         <v>2</v>
-      </c>
-    </row>
-    <row r="137">
-      <c r="A137" s="1">
-        <v>1135</v>
-      </c>
-      <c r="B137" s="1" t="s">
-        <v>474</v>
-      </c>
-      <c r="C137" s="1" t="s">
-        <v>476</v>
-      </c>
-      <c r="E137" s="1">
-        <v>0</v>
-      </c>
-      <c r="G137" s="1">
-        <v>99</v>
-      </c>
-      <c r="H137" s="1">
-        <v>99</v>
-      </c>
-      <c r="I137" s="1">
-        <v>99</v>
-      </c>
-      <c r="J137" s="1">
-        <v>99</v>
       </c>
     </row>
   </sheetData>

--- a/data/talents.xlsx
+++ b/data/talents.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24326"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -10,7 +10,7 @@
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CC5D45B-00AC-4951-8246-510F02069F92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView activeTab="0" windowHeight="12576" windowWidth="23256" xWindow="-108" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}" yWindow="-108"/>
   </bookViews>
   <sheets>
     <sheet name="talents" sheetId="1" r:id="rId1"/>
@@ -92,74 +92,108 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="515" uniqueCount="473">
   <si>
-    <t>序号</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>天赋名</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>括号中的内容</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>1001</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>1002</t>
+    <r>
+      <t>序号</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>天赋名</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>括号中的内容</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1001</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1002</t>
+    </r>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>1003</t>
   </si>
   <si>
-    <t>稀有度</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>初始可用属性点</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>status</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>随身玉佩</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>红肚兜</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>1004</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>生而为男</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>生而为女</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>性别一定为男</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>性别一定为女</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>1005</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>动漫高手</t>
+    <r>
+      <t>稀有度</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>初始可用属性点</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>status</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>随身玉佩</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>红肚兜</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1004</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>生而为男</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>生而为女</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>性别一定为男</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>性别一定为女</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1005</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>动漫高手</t>
+    </r>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -502,571 +536,855 @@
     <t>1118</t>
   </si>
   <si>
-    <t>网络巨魔</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>入宅的可能性翻6倍</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>天赋异禀</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>初始可用属性点+2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>天生抑郁</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>天龙人</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>你拥有北京户口</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>独生子女</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>你没有兄弟姐妹</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>乡间微风</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>你出生在农村</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>你出生在城市</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>城中高楼</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>你有美国国籍</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>美籍华人</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>家中老大</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>你最受父母宠爱</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>水性良好</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>不会被淹死</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>先天免疫</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>你不会得艾滋病</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>所有属性+1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>额外家境</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>额外颜值</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>额外体质</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>额外智力</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>额外快乐</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>快乐+1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>快乐-3</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>快乐+2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>超凡</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>父母美貌</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>颜值+2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>红颜薄命</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>颜值+2，体质-2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>属蛇</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>不会被蛇咬死</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>所有属性+2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>半神</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>人中龙凤</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>天生双重性别</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>阴阳之外</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>天生无性别</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>斩情证道</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>终生不恋爱结婚</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>桃花连连</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>12岁前父母都健在</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>平安童年</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>宠物大师</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>宠物不会意外死亡</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>天生残疾</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>体质-2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>早产儿</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>所有属性-1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>体质-10</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>十死无生</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>家运不顺</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>家境-2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>头着地</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>智力-2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>胎教</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>智力+1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>班中红人</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>和同学容易处好关系</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>骑士</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>能轻松学会骑车</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>永远的神</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>电竞天才</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>可能和同性交往</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>彩虹之下</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>丁克</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>赌毒不沾</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>不生孩子</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>少数民族</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>高考+5分</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>恋爱机会提升</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>老司机</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>你的家人不会心脏病</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>低压</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>战功</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>你退伍后会当官</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>不孕不育</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>你生不出孩子</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>白头偕老</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>爱人至少能活到70岁</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>100岁时才能开启</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>description</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>name</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>$id</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>effect:SPR</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>effect:MNY</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>effect:CHR</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>effect:STR</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>effect:INT</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>三十而立</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>四十不惑</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>30岁时家境+2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>40岁时智力+2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>知天命</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>50岁时智力、快乐+1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>耳顺</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>60岁时快乐+2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>从心所欲</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>70岁时快乐+3</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>老当益壮</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>60岁时体质+2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>鹤发童颜</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>70岁时颜值+3</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>学前启蒙</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>5岁时智力+2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>十八变</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>18岁时颜值+2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>迟来之财</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>90岁时家境+4</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>condition</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>触发条件</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>理财达人</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>成熟</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>形象管理</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>成年礼</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>18岁时快乐+1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>初始可用属性点+1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>初始可用属性点+8</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>初始可用属性点+4</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>天命</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>人类进化</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>开光之胎</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>祖传药丸</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>神秘的小盒子</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>功能不明</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>家境为0时家境+1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>乐天派</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>快乐为0时快乐+1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>体质为0时体质+1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>命悬一线</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>智可生财</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>若20岁时智力&gt;8，家境+2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>舔狗甚多</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>若20岁时颜值&gt;8，快乐+2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>grade</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>保胎丸</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>你不会胎死腹中</t>
+    <r>
+      <t>网络巨魔</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>入宅的可能性翻6倍</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>天赋异禀</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>初始可用属性点+2</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>天生抑郁</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>天龙人</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>你拥有北京户口</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>独生子女</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>你没有兄弟姐妹</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>乡间微风</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>你出生在农村</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>你出生在城市</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>城中高楼</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>你有美国国籍</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>美籍华人</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>家中老大</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>你最受父母宠爱</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>水性良好</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>不会被淹死</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>先天免疫</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>你不会得艾滋病</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>所有属性+1</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>额外家境</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>额外颜值</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>额外体质</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>额外智力</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>额外快乐</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>快乐+1</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>快乐-3</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>快乐+2</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>超凡</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>父母美貌</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>颜值+2</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>红颜薄命</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>颜值+2，体质-2</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>属蛇</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>不会被蛇咬死</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>所有属性+2</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>半神</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>人中龙凤</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>天生双重性别</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>阴阳之外</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>天生无性别</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>斩情证道</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>终生不恋爱结婚</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>桃花连连</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>12岁前父母都健在</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>平安童年</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>宠物大师</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>宠物不会意外死亡</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>天生残疾</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>体质-2</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>早产儿</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>所有属性-1</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>体质-10</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>十死无生</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>家运不顺</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>家境-2</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>头着地</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>智力-2</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>胎教</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>智力+1</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>班中红人</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>和同学容易处好关系</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>骑士</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>能轻松学会骑车</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>永远的神</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>电竞天才</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>可能和同性交往</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>彩虹之下</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>丁克</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>赌毒不沾</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>不生孩子</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>少数民族</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>高考+5分</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>恋爱机会提升</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>老司机</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>你的家人不会心脏病</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>低压</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>战功</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>你退伍后会当官</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>不孕不育</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>你生不出孩子</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>白头偕老</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>爱人至少能活到70岁</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>100岁时才能开启</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>description</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>name</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>$id</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>effect:SPR</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>effect:MNY</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>effect:CHR</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>effect:STR</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>effect:INT</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>三十而立</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>四十不惑</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>30岁时家境+2</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>40岁时智力+2</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>知天命</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>50岁时智力、快乐+1</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>耳顺</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>60岁时快乐+2</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>从心所欲</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>70岁时快乐+3</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>老当益壮</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>60岁时体质+2</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>鹤发童颜</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>70岁时颜值+3</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>学前启蒙</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>5岁时智力+2</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>十八变</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>18岁时颜值+2</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>迟来之财</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>90岁时家境+4</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>condition</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>触发条件</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>理财达人</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>成熟</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>形象管理</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>成年礼</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>18岁时快乐+1</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>初始可用属性点+1</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>初始可用属性点+8</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>初始可用属性点+4</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>天命</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>人类进化</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>开光之胎</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>祖传药丸</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>神秘的小盒子</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>功能不明</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>家境为0时家境+1</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>乐天派</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>快乐为0时快乐+1</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>体质为0时体质+1</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>命悬一线</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>智可生财</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>若20岁时智力&gt;8，家境+2</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>舔狗甚多</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>若20岁时颜值&gt;8，快乐+2</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>grade</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>保胎丸</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>你不会胎死腹中</t>
+    </r>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -1100,501 +1418,747 @@
     <t>(AGE?[20])&amp;(CHR&gt;8)</t>
   </si>
   <si>
-    <t>你不会遭遇枪击</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>白化病</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>佛宗</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>考上哈佛大学的几率提高</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>悟道</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>智力&gt;10时快乐+3</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>INT&gt;10</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>体质&gt;10时颜值+3</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>驻颜</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>STR&gt;10</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>体质&gt;10时快乐+3</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>界限突破</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>颜值&gt;10时快乐+3</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>CHR&gt;10</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>倾城</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>智力&gt;10时体质+3</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>训练有方</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>相由心生</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>智力&gt;10时颜值+3</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>智力&gt;10时家境+3</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>智多鑫</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>快乐&gt;10时其他属性+1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>天启</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>SPR&gt;10</t>
+    <r>
+      <t>你不会遭遇枪击</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>白化病</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>佛宗</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>考上哈佛大学的几率提高</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>悟道</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>智力&gt;10时快乐+3</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>INT&gt;10</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>体质&gt;10时颜值+3</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>驻颜</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>STR&gt;10</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>体质&gt;10时快乐+3</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>界限突破</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>颜值&gt;10时快乐+3</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>CHR&gt;10</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>倾城</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>智力&gt;10时体质+3</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>训练有方</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>相由心生</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>智力&gt;10时颜值+3</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>智力&gt;10时家境+3</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>智多鑫</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>快乐&gt;10时其他属性+1</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>天启</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>SPR&gt;10</t>
+    </r>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>快乐&gt;10时其他属性+2</t>
   </si>
   <si>
-    <t>灵光</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>快乐&gt;10时其他属性+3</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>神谕</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>献祭</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>初始可用点-10</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>挑战者</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>初始可用属性点-2，快乐+2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>初始可用属性点-3，快乐+5</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>幸运儿</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>家境&gt;10时快乐+3</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>MNY&gt;10</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>(MNY&lt;1)&amp;(MNY&gt;-1)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>(SPR&lt;1)&amp;(SPR&gt;-1)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>(STR&lt;1)&amp;(STR&gt;-1)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>你不懂</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>整容</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>家境&gt;10时颜值+3</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>钻石健身卡</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>家境&gt;10时体质+3</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>体质&lt;0时其他属性+1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>STR&lt;0</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>身残志坚</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>活死人</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>开一扇窗</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>颜值&lt;0时其他属性+1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>CHR&lt;0</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>颜值-2，智力+2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>颜值-1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>痘痘脸</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>大额头</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>家境&lt;0时其他属性+1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>快乐&lt;0时其他属性+1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>潜能</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>MNY&lt;0</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>SPR&lt;0</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>哀兵</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>快乐&lt;-1时其他属性+2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>SPR&lt;-1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>家境&lt;-1时其他属性+2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>MNY&lt;-1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>觉醒</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>抖M</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>家境-2，快乐+2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>苦痛侍僧</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>海的女儿</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>颜值-2，初始可用属性点+1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>所有属性&gt;5时，所有属性+1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>(SPR&gt;5)&amp;(MNY&gt;5)&amp;(CHR&gt;5)&amp;(STR&gt;5)&amp;(INT&gt;5)</t>
+    <r>
+      <t>灵光</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>快乐&gt;10时其他属性+3</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>神谕</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>献祭</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>初始可用点-10</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>挑战者</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>初始可用属性点-2，快乐+2</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>初始可用属性点-3，快乐+5</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>幸运儿</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>家境&gt;10时快乐+3</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>MNY&gt;10</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>(MNY&lt;1)&amp;(MNY&gt;-1)</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>(SPR&lt;1)&amp;(SPR&gt;-1)</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>(STR&lt;1)&amp;(STR&gt;-1)</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>你不懂</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>整容</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>家境&gt;10时颜值+3</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>钻石健身卡</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>家境&gt;10时体质+3</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>体质&lt;0时其他属性+1</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>STR&lt;0</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>身残志坚</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>活死人</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>开一扇窗</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>颜值&lt;0时其他属性+1</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>CHR&lt;0</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>颜值-2，智力+2</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>颜值-1</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>痘痘脸</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>大额头</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>家境&lt;0时其他属性+1</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>快乐&lt;0时其他属性+1</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>潜能</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>MNY&lt;0</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>SPR&lt;0</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>哀兵</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>快乐&lt;-1时其他属性+2</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>SPR&lt;-1</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>家境&lt;-1时其他属性+2</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>MNY&lt;-1</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>觉醒</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>抖M</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>家境-2，快乐+2</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>苦痛侍僧</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>海的女儿</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>颜值-2，初始可用属性点+1</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>所有属性&gt;5时，所有属性+1</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>(SPR&gt;5)&amp;(MNY&gt;5)&amp;(CHR&gt;5)&amp;(STR&gt;5)&amp;(INT&gt;5)</t>
+    </r>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>所有属性&gt;5时，所有属性+2</t>
   </si>
   <si>
-    <t>进阶</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>超进化</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>精准扶贫</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>你20、30岁时无事发生</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>蓝色胶囊</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>白色胶囊</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>紫色胶囊</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>你10岁时无事发生</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>AGE?[10]</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>AGE?[20,30]</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>跳过你的40~50岁</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>AGE?[40,41,42,43,44,45,46,47,48,49,50]</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>健康饮食</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>你不吃洋快餐</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>互斥天赋</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>exclusive[]</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>不想罢了</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>你不会上清华大学</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>挑衅</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>你喜欢没事找事</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>你和家人不会发生车祸</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>你喜欢旅游</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>你比较自恋</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>旅行者</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>水仙</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>缺一门</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>无效果</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>你可能听到一些绝密消息</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>异界来客</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>1025</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>1024</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>1003</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>1010</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>1013</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>1014</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>1012</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>1012</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>1013</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>1014</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>三胎人生</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>1113</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>1003</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>1025</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>1026</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>你尽可能生三胎</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>跳过你的60~90岁</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>橙色胶囊</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>AGE?[60,61,62,63,64,65,66,67,68,69,70,71,72,73,74,75,76,77,78,79,80,81,82,83,84,85,86,87,88,89,90]</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>参加奥赛的几率提高</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>宙斯</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>考公务员时一定能考上</t>
+    <r>
+      <t>进阶</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>超进化</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>精准扶贫</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>你20、30岁时无事发生</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>蓝色胶囊</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>白色胶囊</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>紫色胶囊</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>你10岁时无事发生</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>AGE?[10]</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>AGE?[20,30]</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>跳过你的40~50岁</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>AGE?[40,41,42,43,44,45,46,47,48,49,50]</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>健康饮食</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>你不吃洋快餐</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>互斥天赋</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>exclusive[]</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>不想罢了</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>你不会上清华大学</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>挑衅</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>你喜欢没事找事</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>你和家人不会发生车祸</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>你喜欢旅游</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>你比较自恋</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>旅行者</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>水仙</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>缺一门</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>无效果</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>你可能听到一些绝密消息</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>异界来客</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1025</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1024</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1003</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1010</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1013</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1014</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1012</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1012</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1013</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1014</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>三胎人生</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1113</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1003</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1025</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1026</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>你尽可能生三胎</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>跳过你的60~90岁</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>橙色胶囊</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>AGE?[60,61,62,63,64,65,66,67,68,69,70,71,72,73,74,75,76,77,78,79,80,81,82,83,84,85,86,87,88,89,90]</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>参加奥赛的几率提高</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>宙斯</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>考公务员时一定能考上</t>
+    </r>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -1628,79 +2192,117 @@
     <t>1128</t>
   </si>
   <si>
-    <t>为人民服务</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>入狱会减刑</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>表现良好</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>运气稍微提升</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>小吉</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>天秤座</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>据说做事很公平</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>万里挑一</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>你很攻</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>你有强迫症</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>把握不住</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>赶着投胎，不要初始属性了</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>1084</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>1085</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>1086</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>1122</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>急了急了</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>不离不弃</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>你不会离婚</t>
+    <r>
+      <t>为人民服务</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>入狱会减刑</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>表现良好</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>运气稍微提升</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>小吉</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>天秤座</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>据说做事很公平</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>万里挑一</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>你很攻</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>你有强迫症</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>把握不住</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>赶着投胎，不要初始属性了</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1084</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1085</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1086</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1122</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>急了急了</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>不离不弃</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>你不会离婚</t>
+    </r>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -1710,202 +2312,288 @@
     <t>1130</t>
   </si>
   <si>
-    <t>身高不矮</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>足量</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>易胖体质</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>颜值更容易降低</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>种族主义者</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>黄帝</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>戒律</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>左撇子</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>习惯使用左手</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>克苏鲁</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>&amp;▓▓▓◆▓▓▓￥#▓@■.◆</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>你还拥有其他人格</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>不连续存在</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>占位符</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>少一个可选天赋</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>小时候死亡率降低</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>或许有护佑作用</t>
+    <r>
+      <t>身高不矮</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>足量</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>易胖体质</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>颜值更容易降低</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>种族主义者</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>黄帝</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>戒律</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>左撇子</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>习惯使用左手</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>克苏鲁</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>&amp;▓▓▓◆▓▓▓￥#▓@■.◆</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>你还拥有其他人格</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>不连续存在</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>占位符</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>少一个可选天赋</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>小时候死亡率降低</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>或许有护佑作用</t>
+    </r>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>1131</t>
   </si>
   <si>
-    <t>魔法棒</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>不知道有什么用……</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>返老还童</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>可能会回到年轻的时候</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>时光倒流</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>或许时间会倒流</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>转世重修</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>渡劫失败重生</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>AGE?[40]</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>40岁时家境+3</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>18岁时智力+2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>AGE?[18]</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>24岁时颜值+2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>AGE?[24]</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>体质&lt;0时其他属性+2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>乐观</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <r>
+      <t>魔法棒</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>不知道有什么用……</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>返老还童</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>可能会回到年轻的时候</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>时光倒流</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>或许时间会倒流</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>转世重修</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>渡劫失败重生</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>AGE?[40]</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>40岁时家境+3</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>18岁时智力+2</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>AGE?[18]</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>24岁时颜值+2</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>AGE?[24]</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>体质&lt;0时其他属性+2</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>乐观</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>大帝之姿</t>
+  </si>
+  <si>
+    <t>所有属性+9999</t>
+  </si>
+  <si>
+    <t>9999</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="8">
+    <numFmt numFmtId="5" formatCode="&quot;$&quot;#,##0_);(&quot;$&quot;#,##0)"/>
+    <numFmt numFmtId="6" formatCode="&quot;$&quot;#,##0_);[Red](&quot;$&quot;#,##0)"/>
+    <numFmt numFmtId="7" formatCode="&quot;$&quot;#,##0.00_);(&quot;$&quot;#,##0.00)"/>
+    <numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00_);[Red](&quot;$&quot;#,##0.00)"/>
+    <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* (#,##0);_(* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* (#,##0);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* (#,##0.00);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* (#,##0.00);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+  </numFmts>
+  <fonts count="8">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="等线"/>
       <family val="2"/>
+      <color rgb="FF000000"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
+      <family val="2"/>
+      <color rgb="FFFFFFFF"/>
       <sz val="14"/>
-      <color theme="0"/>
-      <name val="微软雅黑"/>
-      <family val="2"/>
-      <charset val="134"/>
     </font>
     <font>
+      <name val="等线"/>
+      <charset val="134"/>
+      <family val="3"/>
+      <color rgb="FF000000"/>
       <sz val="9"/>
-      <name val="等线"/>
-      <family val="3"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
+      <family val="2"/>
+      <color rgb="FF000000"/>
       <sz val="14"/>
-      <color theme="1"/>
-      <name val="微软雅黑"/>
-      <family val="2"/>
-      <charset val="134"/>
     </font>
     <font>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <family val="3"/>
+      <color rgb="FFauto"/>
       <sz val="9"/>
-      <color indexed="81"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
     </font>
     <font>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <family val="3"/>
       <b/>
+      <color rgb="FFauto"/>
       <sz val="9"/>
-      <color indexed="81"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
     </font>
     <font>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
+      <family val="2"/>
+      <color rgb="FF000000"/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="微软雅黑"/>
-      <family val="2"/>
-      <charset val="134"/>
     </font>
     <font>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
+      <family val="2"/>
+      <color rgb="FF000000"/>
       <sz val="10"/>
-      <color theme="1"/>
-      <name val="微软雅黑"/>
-      <family val="2"/>
-      <charset val="134"/>
     </font>
   </fonts>
   <fills count="4">
@@ -1917,44 +2605,54 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="2" tint="-0.749992370372631"/>
+        <fgColor rgb="FF3A3838"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="2" tint="-0.249977111117893"/>
+        <fgColor rgb="FFAEABAB"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
   <borders count="1">
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
+      <left style="none">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="none">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="none">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="none">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellStyleXfs>
   <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -2245,19 +2943,18 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q136"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0" tabSelected="1">
       <pane xSplit="3" ySplit="2" topLeftCell="D129" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="F131" sqref="F131"/>
+      <selection pane="bottomRight" activeCell="L32" sqref="L32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="25.44140625" defaultRowHeight="39.6" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="25.44140625" defaultRowHeight="39"/>
   <cols>
-    <col min="1" max="1" width="25.44140625" style="1"/>
+    <col min="1" max="1" width="25.44140625" style="1" customWidth="1"/>
     <col min="2" max="2" width="27.44140625" style="1" customWidth="1"/>
     <col min="3" max="3" width="33" style="1" customWidth="1"/>
     <col min="4" max="4" width="20.88671875" style="1" customWidth="1"/>
@@ -2268,10 +2965,10 @@
     <col min="15" max="15" width="19.33203125" style="1" customWidth="1"/>
     <col min="16" max="16" width="21.88671875" style="1" customWidth="1"/>
     <col min="17" max="17" width="19.109375" style="1" customWidth="1"/>
-    <col min="18" max="16384" width="25.44140625" style="1"/>
+    <col min="18" max="16384" width="25.44140625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" s="2" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row ht="39.6" customHeight="1" r="1" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>219</v>
       </c>
@@ -2324,7 +3021,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="2" spans="1:17" s="3" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row ht="39.6" customHeight="1" r="2" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
@@ -2377,7 +3074,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="3" spans="1:17" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row ht="39.6" customHeight="1" r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
@@ -2391,7 +3088,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:17" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row ht="39.6" customHeight="1" r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
@@ -2405,7 +3102,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:17" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row ht="39.6" customHeight="1" r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>5</v>
       </c>
@@ -2431,7 +3128,7 @@
         <v>1113</v>
       </c>
     </row>
-    <row r="6" spans="1:17" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row ht="39.6" customHeight="1" r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>11</v>
       </c>
@@ -2454,7 +3151,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="7" spans="1:17" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row ht="39.6" customHeight="1" r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>16</v>
       </c>
@@ -2468,7 +3165,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:17" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row ht="39.6" customHeight="1" r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>18</v>
       </c>
@@ -2485,7 +3182,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:17" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row ht="39.6" customHeight="1" r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>19</v>
       </c>
@@ -2502,7 +3199,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:17" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row ht="39.6" customHeight="1" r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>20</v>
       </c>
@@ -2519,7 +3216,7 @@
         <v>-3</v>
       </c>
     </row>
-    <row r="11" spans="1:17" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row ht="39.6" customHeight="1" r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>21</v>
       </c>
@@ -2536,7 +3233,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:17" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row ht="39.6" customHeight="1" r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>22</v>
       </c>
@@ -2559,7 +3256,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="13" spans="1:17" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row ht="39.6" customHeight="1" r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>23</v>
       </c>
@@ -2573,7 +3270,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:17" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row ht="39.6" customHeight="1" r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>24</v>
       </c>
@@ -2596,7 +3293,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="15" spans="1:17" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row ht="39.6" customHeight="1" r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>25</v>
       </c>
@@ -2619,7 +3316,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="16" spans="1:17" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row ht="39.6" customHeight="1" r="16" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>26</v>
       </c>
@@ -2645,7 +3342,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="17" spans="1:15" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row ht="39.6" customHeight="1" r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>27</v>
       </c>
@@ -2659,7 +3356,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:15" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row ht="39.6" customHeight="1" r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>28</v>
       </c>
@@ -2673,7 +3370,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:15" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row ht="39.6" customHeight="1" r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>29</v>
       </c>
@@ -2687,7 +3384,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:15" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row ht="39.6" customHeight="1" r="20" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>30</v>
       </c>
@@ -2716,7 +3413,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:15" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row ht="39.6" customHeight="1" r="21" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>31</v>
       </c>
@@ -2733,7 +3430,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="22" spans="1:15" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row ht="39.6" customHeight="1" r="22" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>32</v>
       </c>
@@ -2750,7 +3447,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="1:15" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row ht="39.6" customHeight="1" r="23" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>33</v>
       </c>
@@ -2770,7 +3467,7 @@
         <v>-2</v>
       </c>
     </row>
-    <row r="24" spans="1:15" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row ht="39.6" customHeight="1" r="24" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>34</v>
       </c>
@@ -2784,7 +3481,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:15" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row ht="39.6" customHeight="1" r="25" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>35</v>
       </c>
@@ -2813,7 +3510,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="26" spans="1:15" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row ht="39.6" customHeight="1" r="26" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>36</v>
       </c>
@@ -2836,7 +3533,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="27" spans="1:15" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row ht="39.6" customHeight="1" r="27" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>37</v>
       </c>
@@ -2862,7 +3559,7 @@
         <v>1113</v>
       </c>
     </row>
-    <row r="28" spans="1:15" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row ht="39.6" customHeight="1" r="28" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>38</v>
       </c>
@@ -2879,7 +3576,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="29" spans="1:15" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row ht="39.6" customHeight="1" r="29" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>39</v>
       </c>
@@ -2896,7 +3593,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="30" spans="1:15" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row ht="39.6" customHeight="1" r="30" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>40</v>
       </c>
@@ -2910,7 +3607,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:15" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row ht="39.6" customHeight="1" r="31" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>41</v>
       </c>
@@ -2924,7 +3621,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:15" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row ht="39.6" customHeight="1" r="32" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>42</v>
       </c>
@@ -2938,7 +3635,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:12" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row ht="39.6" customHeight="1" r="33" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>43</v>
       </c>
@@ -2955,36 +3652,39 @@
         <v>-2</v>
       </c>
     </row>
-    <row r="34" spans="1:12" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row ht="39.6" customHeight="1" r="34" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>44</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>183</v>
+        <v>473</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>184</v>
+        <v>474</v>
       </c>
       <c r="E34" s="1">
         <v>0</v>
       </c>
       <c r="G34" s="1">
-        <v>-1</v>
+        <v>9999</v>
       </c>
       <c r="H34" s="1">
-        <v>-1</v>
+        <v>9999</v>
       </c>
       <c r="I34" s="1">
-        <v>-1</v>
+        <v>9999</v>
       </c>
       <c r="J34" s="1">
-        <v>-1</v>
+        <v>9999</v>
       </c>
       <c r="K34" s="1">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="35" spans="1:12" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+        <v>9999</v>
+      </c>
+      <c r="L34" s="6" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row ht="39.6" customHeight="1" r="35" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>45</v>
       </c>
@@ -3001,7 +3701,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="36" spans="1:12" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row ht="39.6" customHeight="1" r="36" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>46</v>
       </c>
@@ -3018,7 +3718,7 @@
         <v>-2</v>
       </c>
     </row>
-    <row r="37" spans="1:12" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row ht="39.6" customHeight="1" r="37" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>47</v>
       </c>
@@ -3035,7 +3735,7 @@
         <v>-2</v>
       </c>
     </row>
-    <row r="38" spans="1:12" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row ht="39.6" customHeight="1" r="38" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>48</v>
       </c>
@@ -3052,7 +3752,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:12" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row ht="39.6" customHeight="1" r="39" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>49</v>
       </c>
@@ -3066,7 +3766,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:12" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row ht="39.6" customHeight="1" r="40" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>50</v>
       </c>
@@ -3080,7 +3780,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:12" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row ht="39.6" customHeight="1" r="41" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
         <v>51</v>
       </c>
@@ -3094,7 +3794,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:12" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row ht="39.6" customHeight="1" r="42" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
         <v>52</v>
       </c>
@@ -3108,7 +3808,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:12" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row ht="39.6" customHeight="1" r="43" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
         <v>53</v>
       </c>
@@ -3125,7 +3825,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="44" spans="1:12" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row ht="39.6" customHeight="1" r="44" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
         <v>54</v>
       </c>
@@ -3139,7 +3839,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:12" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row ht="39.6" customHeight="1" r="45" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
         <v>55</v>
       </c>
@@ -3153,7 +3853,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:12" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row ht="39.6" customHeight="1" r="46" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
         <v>56</v>
       </c>
@@ -3167,7 +3867,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:12" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row ht="39.6" customHeight="1" r="47" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
         <v>57</v>
       </c>
@@ -3181,7 +3881,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:12" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row ht="39.6" customHeight="1" r="48" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
         <v>58</v>
       </c>
@@ -3198,7 +3898,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="49" spans="1:11" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row ht="39.6" customHeight="1" r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
         <v>59</v>
       </c>
@@ -3212,7 +3912,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:11" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row ht="39.6" customHeight="1" r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
         <v>60</v>
       </c>
@@ -3226,7 +3926,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="51" spans="1:11" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row ht="39.6" customHeight="1" r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
         <v>61</v>
       </c>
@@ -3246,7 +3946,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="52" spans="1:11" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row ht="39.6" customHeight="1" r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
         <v>62</v>
       </c>
@@ -3266,7 +3966,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="53" spans="1:11" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row ht="39.6" customHeight="1" r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
         <v>63</v>
       </c>
@@ -3289,7 +3989,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:11" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row ht="39.6" customHeight="1" r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
         <v>64</v>
       </c>
@@ -3309,7 +4009,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="55" spans="1:11" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row ht="39.6" customHeight="1" r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
         <v>65</v>
       </c>
@@ -3329,7 +4029,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="56" spans="1:11" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row ht="39.6" customHeight="1" r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
         <v>66</v>
       </c>
@@ -3349,7 +4049,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="57" spans="1:11" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row ht="39.6" customHeight="1" r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
         <v>67</v>
       </c>
@@ -3369,7 +4069,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="58" spans="1:11" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row ht="39.6" customHeight="1" r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
         <v>68</v>
       </c>
@@ -3389,7 +4089,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="59" spans="1:11" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row ht="39.6" customHeight="1" r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
         <v>69</v>
       </c>
@@ -3409,7 +4109,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="60" spans="1:11" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row ht="39.6" customHeight="1" r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
         <v>70</v>
       </c>
@@ -3429,7 +4129,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="61" spans="1:11" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row ht="39.6" customHeight="1" r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
         <v>71</v>
       </c>
@@ -3449,7 +4149,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="62" spans="1:11" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row ht="39.6" customHeight="1" r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
         <v>72</v>
       </c>
@@ -3469,7 +4169,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="63" spans="1:11" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row ht="39.6" customHeight="1" r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
         <v>73</v>
       </c>
@@ -3489,7 +4189,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="64" spans="1:11" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row ht="39.6" customHeight="1" r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
         <v>74</v>
       </c>
@@ -3509,7 +4209,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:10" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row ht="39.6" customHeight="1" r="65" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
         <v>75</v>
       </c>
@@ -3526,7 +4226,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:10" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row ht="39.6" customHeight="1" r="66" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
         <v>76</v>
       </c>
@@ -3543,7 +4243,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="67" spans="1:10" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row ht="39.6" customHeight="1" r="67" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
         <v>77</v>
       </c>
@@ -3557,7 +4257,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:10" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row ht="39.6" customHeight="1" r="68" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
         <v>78</v>
       </c>
@@ -3577,7 +4277,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:10" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row ht="39.6" customHeight="1" r="69" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
         <v>79</v>
       </c>
@@ -3597,7 +4297,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:10" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row ht="39.6" customHeight="1" r="70" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
         <v>80</v>
       </c>
@@ -3617,7 +4317,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="1:10" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row ht="39.6" customHeight="1" r="71" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
         <v>81</v>
       </c>
@@ -3637,7 +4337,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="72" spans="1:10" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row ht="39.6" customHeight="1" r="72" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
         <v>82</v>
       </c>
@@ -3657,7 +4357,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="73" spans="1:10" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row ht="39.6" customHeight="1" r="73" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
         <v>83</v>
       </c>
@@ -3671,7 +4371,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:10" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row ht="39.6" customHeight="1" r="74" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
         <v>84</v>
       </c>
@@ -3685,7 +4385,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:10" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row ht="39.6" customHeight="1" r="75" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
         <v>85</v>
       </c>
@@ -3699,7 +4399,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:10" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row ht="39.6" customHeight="1" r="76" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
         <v>86</v>
       </c>
@@ -3719,7 +4419,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="77" spans="1:10" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row ht="39.6" customHeight="1" r="77" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
         <v>87</v>
       </c>
@@ -3739,7 +4439,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="78" spans="1:10" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row ht="39.6" customHeight="1" r="78" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
         <v>88</v>
       </c>
@@ -3759,7 +4459,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="79" spans="1:10" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row ht="39.6" customHeight="1" r="79" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
         <v>89</v>
       </c>
@@ -3779,7 +4479,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="80" spans="1:10" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row ht="39.6" customHeight="1" r="80" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
         <v>90</v>
       </c>
@@ -3799,7 +4499,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="81" spans="1:12" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row ht="39.6" customHeight="1" r="81" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
         <v>91</v>
       </c>
@@ -3819,7 +4519,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="82" spans="1:12" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row ht="39.6" customHeight="1" r="82" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
         <v>92</v>
       </c>
@@ -3839,7 +4539,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="83" spans="1:12" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row ht="39.6" customHeight="1" r="83" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
         <v>93</v>
       </c>
@@ -3868,7 +4568,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="84" spans="1:12" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row ht="39.6" customHeight="1" r="84" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="s">
         <v>94</v>
       </c>
@@ -3897,7 +4597,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="85" spans="1:12" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row ht="39.6" customHeight="1" r="85" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A85" s="1" t="s">
         <v>95</v>
       </c>
@@ -3926,7 +4626,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="86" spans="1:12" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row ht="39.6" customHeight="1" r="86" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A86" s="1" t="s">
         <v>96</v>
       </c>
@@ -3949,7 +4649,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="87" spans="1:12" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row ht="39.6" customHeight="1" r="87" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A87" s="1" t="s">
         <v>97</v>
       </c>
@@ -3972,7 +4672,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="88" spans="1:12" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row ht="39.6" customHeight="1" r="88" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A88" s="1" t="s">
         <v>98</v>
       </c>
@@ -3992,7 +4692,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="89" spans="1:12" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row ht="39.6" customHeight="1" r="89" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A89" s="1" t="s">
         <v>99</v>
       </c>
@@ -4012,7 +4712,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="90" spans="1:12" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row ht="39.6" customHeight="1" r="90" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A90" s="1" t="s">
         <v>100</v>
       </c>
@@ -4032,7 +4732,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="91" spans="1:12" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row ht="39.6" customHeight="1" r="91" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A91" s="1" t="s">
         <v>101</v>
       </c>
@@ -4052,7 +4752,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="92" spans="1:12" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row ht="39.6" customHeight="1" r="92" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A92" s="1" t="s">
         <v>102</v>
       </c>
@@ -4081,7 +4781,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="93" spans="1:12" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row ht="39.6" customHeight="1" r="93" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A93" s="1" t="s">
         <v>103</v>
       </c>
@@ -4110,7 +4810,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="94" spans="1:12" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row ht="39.6" customHeight="1" r="94" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A94" s="1" t="s">
         <v>104</v>
       </c>
@@ -4139,7 +4839,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="95" spans="1:12" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row ht="39.6" customHeight="1" r="95" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A95" s="1" t="s">
         <v>105</v>
       </c>
@@ -4159,7 +4859,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="96" spans="1:12" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row ht="39.6" customHeight="1" r="96" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A96" s="1" t="s">
         <v>106</v>
       </c>
@@ -4176,7 +4876,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="97" spans="1:11" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row ht="39.6" customHeight="1" r="97" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A97" s="1" t="s">
         <v>107</v>
       </c>
@@ -4205,7 +4905,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="98" spans="1:11" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row ht="39.6" customHeight="1" r="98" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A98" s="1" t="s">
         <v>108</v>
       </c>
@@ -4234,7 +4934,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="99" spans="1:11" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row ht="39.6" customHeight="1" r="99" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A99" s="1" t="s">
         <v>109</v>
       </c>
@@ -4263,7 +4963,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="100" spans="1:11" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row ht="39.6" customHeight="1" r="100" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A100" s="1" t="s">
         <v>110</v>
       </c>
@@ -4292,7 +4992,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="101" spans="1:11" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row ht="39.6" customHeight="1" r="101" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A101" s="1" t="s">
         <v>111</v>
       </c>
@@ -4312,7 +5012,7 @@
         <v>-2</v>
       </c>
     </row>
-    <row r="102" spans="1:11" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row ht="39.6" customHeight="1" r="102" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A102" s="1" t="s">
         <v>112</v>
       </c>
@@ -4332,7 +5032,7 @@
         <v>-2</v>
       </c>
     </row>
-    <row r="103" spans="1:11" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row ht="39.6" customHeight="1" r="103" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A103" s="1" t="s">
         <v>113</v>
       </c>
@@ -4364,7 +5064,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="104" spans="1:11" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row ht="39.6" customHeight="1" r="104" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A104" s="1" t="s">
         <v>114</v>
       </c>
@@ -4396,7 +5096,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="105" spans="1:11" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row ht="39.6" customHeight="1" r="105" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A105" s="1" t="s">
         <v>115</v>
       </c>
@@ -4413,7 +5113,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:11" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row ht="39.6" customHeight="1" r="106" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A106" s="1" t="s">
         <v>116</v>
       </c>
@@ -4430,7 +5130,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="107" spans="1:11" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row ht="39.6" customHeight="1" r="107" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A107" s="1" t="s">
         <v>117</v>
       </c>
@@ -4447,7 +5147,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="108" spans="1:11" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row ht="39.6" customHeight="1" r="108" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A108" s="1" t="s">
         <v>118</v>
       </c>
@@ -4461,7 +5161,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:11" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row ht="39.6" customHeight="1" r="109" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A109" s="1" t="s">
         <v>119</v>
       </c>
@@ -4475,7 +5175,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:11" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row ht="39.6" customHeight="1" r="110" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A110" s="1" t="s">
         <v>120</v>
       </c>
@@ -4489,7 +5189,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:11" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row ht="39.6" customHeight="1" r="111" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A111" s="1" t="s">
         <v>121</v>
       </c>
@@ -4503,7 +5203,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:11" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row ht="39.6" customHeight="1" r="112" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A112" s="1" t="s">
         <v>122</v>
       </c>
@@ -4517,7 +5217,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:17" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row ht="39.6" customHeight="1" r="113" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A113" s="1" t="s">
         <v>123</v>
       </c>
@@ -4531,7 +5231,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:17" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row ht="39.6" customHeight="1" r="114" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A114" s="1" t="s">
         <v>124</v>
       </c>
@@ -4545,7 +5245,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="115" spans="1:17" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row ht="39.6" customHeight="1" r="115" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A115" s="1" t="s">
         <v>125</v>
       </c>
@@ -4577,7 +5277,7 @@
         <v>1046</v>
       </c>
     </row>
-    <row r="116" spans="1:17" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row ht="39.6" customHeight="1" r="116" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A116" s="1" t="s">
         <v>126</v>
       </c>
@@ -4594,7 +5294,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="117" spans="1:17" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row ht="39.6" customHeight="1" r="117" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A117" s="1" t="s">
         <v>127</v>
       </c>
@@ -4608,7 +5308,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="1:17" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row ht="39.6" customHeight="1" r="118" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A118" s="1" t="s">
         <v>128</v>
       </c>
@@ -4622,7 +5322,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:17" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row ht="39.6" customHeight="1" r="119" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A119" s="1" t="s">
         <v>129</v>
       </c>
@@ -4636,7 +5336,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="1:17" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row ht="39.6" customHeight="1" r="120" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A120" s="1" t="s">
         <v>130</v>
       </c>
@@ -4650,7 +5350,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="1:17" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row ht="39.6" customHeight="1" r="121" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A121" s="1" t="s">
         <v>408</v>
       </c>
@@ -4664,7 +5364,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="1:17" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row ht="39.6" customHeight="1" r="122" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A122" s="1" t="s">
         <v>409</v>
       </c>
@@ -4678,7 +5378,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="1:17" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row ht="39.6" customHeight="1" r="123" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A123" s="1" t="s">
         <v>410</v>
       </c>
@@ -4692,7 +5392,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="1:17" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row ht="39.6" customHeight="1" r="124" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A124" s="1" t="s">
         <v>411</v>
       </c>
@@ -4718,7 +5418,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="125" spans="1:17" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row ht="39.6" customHeight="1" r="125" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A125" s="1" t="s">
         <v>412</v>
       </c>
@@ -4732,7 +5432,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="1:17" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row ht="39.6" customHeight="1" r="126" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A126" s="1" t="s">
         <v>413</v>
       </c>
@@ -4746,7 +5446,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="1:17" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row ht="39.6" customHeight="1" r="127" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A127" s="1" t="s">
         <v>414</v>
       </c>
@@ -4760,7 +5460,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="1:17" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row ht="39.6" customHeight="1" r="128" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A128" s="1" t="s">
         <v>415</v>
       </c>
@@ -4774,7 +5474,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="1:5" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row ht="39.6" customHeight="1" r="129" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A129" s="1" t="s">
         <v>416</v>
       </c>
@@ -4788,7 +5488,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="1:5" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row ht="39.6" customHeight="1" r="130" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A130" s="1" t="s">
         <v>417</v>
       </c>
@@ -4802,7 +5502,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="131" spans="1:5" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row ht="39.6" customHeight="1" r="131" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A131" s="1" t="s">
         <v>437</v>
       </c>
@@ -4816,7 +5516,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="132" spans="1:5" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row ht="39.6" customHeight="1" r="132" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A132" s="1" t="s">
         <v>438</v>
       </c>
@@ -4830,7 +5530,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="1:5" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row ht="39.6" customHeight="1" r="133" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A133" s="1" t="s">
         <v>456</v>
       </c>
@@ -4844,7 +5544,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="134" spans="1:5" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row ht="39.6" customHeight="1" r="134" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A134" s="1">
         <v>1132</v>
       </c>
@@ -4858,7 +5558,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="135" spans="1:5" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row ht="39.6" customHeight="1" r="135" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A135" s="1">
         <v>1133</v>
       </c>
@@ -4872,7 +5572,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="136" spans="1:5" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row ht="39.6" customHeight="1" r="136" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A136" s="1">
         <v>1134</v>
       </c>
